--- a/ReactJS Nominations.xlsx
+++ b/ReactJS Nominations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandeep\Coforge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E04196-E8AC-40F4-A672-1C39F967EE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9D1AB-3153-4858-A69C-7C6112A4B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{851A139D-7010-47FF-AF3F-83E7A97C14B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>Email ID</t>
   </si>
@@ -171,6 +171,42 @@
   </si>
   <si>
     <t>Abcent</t>
+  </si>
+  <si>
+    <t>Imran Shaik</t>
+  </si>
+  <si>
+    <t>varuni gembali</t>
+  </si>
+  <si>
+    <t>Surendranath Reddy</t>
+  </si>
+  <si>
+    <t>IMRAN.SHAIK@COFORGE.COM</t>
+  </si>
+  <si>
+    <t>VARUNI.GEMBALI@COFORGE.COM</t>
+  </si>
+  <si>
+    <t>SRILEKHA.KANKANALA@COFORGE.COM</t>
+  </si>
+  <si>
+    <t>SOWMYASHREE.G@COFORGE.COM</t>
+  </si>
+  <si>
+    <t>SURENDRANATHREDDY.K@COFORGE.COM</t>
+  </si>
+  <si>
+    <t>Sowmya Shree</t>
+  </si>
+  <si>
+    <t>Srilekha kankanala</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Droped</t>
   </si>
 </sst>
 </file>
@@ -208,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +260,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +306,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -267,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,9 +329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,6 +339,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AF0BBE-5B40-466A-A7B5-371690DA5A67}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +706,7 @@
     <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="10.08984375" customWidth="1"/>
@@ -659,7 +725,7 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5">
         <v>45607</v>
       </c>
       <c r="E1" s="4">
@@ -742,8 +808,17 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
@@ -756,7 +831,16 @@
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -770,8 +854,17 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>44</v>
+      <c r="D4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -784,7 +877,16 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -798,7 +900,16 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -812,8 +923,17 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>44</v>
+      <c r="D7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -826,7 +946,16 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -840,7 +969,16 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -854,8 +992,17 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>44</v>
+      <c r="D10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
@@ -868,8 +1015,17 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>44</v>
+      <c r="D11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -882,8 +1038,17 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
+      <c r="D12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -896,8 +1061,17 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
@@ -910,8 +1084,17 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
+      <c r="D14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
@@ -924,7 +1107,16 @@
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -938,11 +1130,20 @@
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>95285</v>
       </c>
@@ -952,11 +1153,20 @@
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>94684</v>
       </c>
@@ -966,11 +1176,20 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>94685</v>
       </c>
@@ -980,11 +1199,20 @@
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>103284</v>
       </c>
@@ -994,33 +1222,167 @@
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="D20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>95287</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="D21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>68684</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>94708</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>94711</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>92753</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>106384</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6ACBBE0F-5563-4BEB-85BC-952ED3E27054}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{94E5D5F8-2411-43F8-B706-2E7F6A00F717}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{3397C5BF-8C9D-4CA5-8B3F-3EDBF86A4F27}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{5FD1974A-7B56-4B8D-BC29-233411502424}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{DFE5CAFE-6520-4E21-9762-90D22D6A4F8F}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{861A0C47-56D7-44F7-AA99-2D8619A2BAF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>